--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -375,7 +375,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">12          </t>
+          <t xml:space="preserve">12               </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -398,6 +398,21 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>b1b1bd1ed240b1496c81ccf19ceccf2af6fd24fac10ae42023628abbe2687310</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -375,7 +375,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">12               </t>
+          <t xml:space="preserve">12                                 </t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
